--- a/src/templates/correspondance-type-ordo.xlsx
+++ b/src/templates/correspondance-type-ordo.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonia TILLOT\workspace\adam-ordonnance-main\src\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0284AF-DDBA-4557-978F-6150BB217296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 1 - correspondance-type" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1 - correspondance-type" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
-  <si>
-    <t>Type de pompe</t>
-  </si>
-  <si>
-    <t>Type de capteur</t>
-  </si>
-  <si>
-    <t>Nom du template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>OMNIPOD 5</t>
   </si>
@@ -98,33 +103,29 @@
   </si>
   <si>
     <t>ORDO_Capteur_GS4.docx</t>
+  </si>
+  <si>
+    <t>typePompe</t>
+  </si>
+  <si>
+    <t>typeCapteur</t>
+  </si>
+  <si>
+    <t>template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -271,42 +272,42 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -317,27 +318,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -539,7 +598,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -557,7 +616,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -586,7 +645,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,7 +670,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -636,7 +695,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +720,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -686,7 +745,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,7 +770,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,7 +820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,9 +858,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -818,7 +883,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -836,7 +901,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -861,7 +926,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,7 +951,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,7 +976,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +1001,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -961,7 +1026,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -986,7 +1051,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1076,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,7 +1101,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,7 +1126,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,9 +1139,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1090,7 +1161,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1108,7 +1179,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1208,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1233,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1258,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1283,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1308,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,7 +1333,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1358,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,7 +1383,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1408,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1350,267 +1421,277 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s" s="5">
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="6">
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>14</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="C14" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="6">
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="6">
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="6">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="8">
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s" s="7">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="6">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" t="s" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s" s="8">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/templates/correspondance-type-ordo.xlsx
+++ b/src/templates/correspondance-type-ordo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonia TILLOT\workspace\adam-ordonnance-main\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonia TILLOT\workspace\adam-ordonnance-main\adam-ordonnance-main\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0284AF-DDBA-4557-978F-6150BB217296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437A2D62-34AF-4029-B534-6502BB82327E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3768" yWindow="3336" windowWidth="22152" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1 - correspondance-type" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>OMNIPOD 5</t>
   </si>
@@ -102,7 +102,7 @@
     <t>MEDTRUM 200UI</t>
   </si>
   <si>
-    <t>ORDO_Capteur_GS4.docx</t>
+    <t>ORDO_BF_Tandem.docx</t>
   </si>
   <si>
     <t>typePompe</t>
@@ -276,7 +276,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -305,9 +305,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1443,17 +1440,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.33203125" style="1"/>
   </cols>
@@ -1493,38 +1490,38 @@
     </row>
     <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
@@ -1533,9 +1530,11 @@
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1544,18 +1543,18 @@
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1564,16 +1563,14 @@
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="8" t="s">
@@ -1582,16 +1579,18 @@
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" s="8" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>3</v>
@@ -1602,13 +1601,13 @@
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -1616,26 +1615,24 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="8" t="s">
@@ -1644,49 +1641,22 @@
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="8" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
